--- a/Code/Results/Cases/Case_4_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.034539354400598</v>
+        <v>1.061321398556226</v>
       </c>
       <c r="D2">
-        <v>1.052829629561082</v>
+        <v>1.067797366434812</v>
       </c>
       <c r="E2">
-        <v>1.042499809479129</v>
+        <v>1.065018583725078</v>
       </c>
       <c r="F2">
-        <v>1.057364037484707</v>
+        <v>1.076606152553309</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066527478422074</v>
+        <v>1.057324253352831</v>
       </c>
       <c r="J2">
-        <v>1.055733889932465</v>
+        <v>1.066297682308172</v>
       </c>
       <c r="K2">
-        <v>1.063598942775854</v>
+        <v>1.070504265738888</v>
       </c>
       <c r="L2">
-        <v>1.053397181716706</v>
+        <v>1.06773295471182</v>
       </c>
       <c r="M2">
-        <v>1.068078119271932</v>
+        <v>1.079289642001102</v>
       </c>
       <c r="N2">
-        <v>1.020339643586363</v>
+        <v>1.025557616551882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.040707863957072</v>
+        <v>1.062555617903231</v>
       </c>
       <c r="D3">
-        <v>1.057869477020332</v>
+        <v>1.068818223727867</v>
       </c>
       <c r="E3">
-        <v>1.048192645014361</v>
+        <v>1.066203777349063</v>
       </c>
       <c r="F3">
-        <v>1.062923254026855</v>
+        <v>1.077759103800774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069258227443104</v>
+        <v>1.057787663313956</v>
       </c>
       <c r="J3">
-        <v>1.060147120874626</v>
+        <v>1.067184540359022</v>
       </c>
       <c r="K3">
-        <v>1.067811814187019</v>
+        <v>1.071340467621829</v>
       </c>
       <c r="L3">
-        <v>1.058243902321598</v>
+        <v>1.068732540805913</v>
       </c>
       <c r="M3">
-        <v>1.072809675903698</v>
+        <v>1.080259309246273</v>
       </c>
       <c r="N3">
-        <v>1.022014507534912</v>
+        <v>1.025878551360732</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.044596852323815</v>
+        <v>1.06335367644633</v>
       </c>
       <c r="D4">
-        <v>1.061049542275281</v>
+        <v>1.069478301842035</v>
       </c>
       <c r="E4">
-        <v>1.051786517222964</v>
+        <v>1.066970440053253</v>
       </c>
       <c r="F4">
-        <v>1.06643351187398</v>
+        <v>1.078504946511711</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070969150376872</v>
+        <v>1.058085985866455</v>
       </c>
       <c r="J4">
-        <v>1.062924693510999</v>
+        <v>1.067757294141358</v>
       </c>
       <c r="K4">
-        <v>1.070463024296652</v>
+        <v>1.071880450760555</v>
       </c>
       <c r="L4">
-        <v>1.061297656706902</v>
+        <v>1.06937852672855</v>
       </c>
       <c r="M4">
-        <v>1.075791183397292</v>
+        <v>1.080885968558615</v>
       </c>
       <c r="N4">
-        <v>1.023065902834179</v>
+        <v>1.026085266381966</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.046208396005944</v>
+        <v>1.063689047899703</v>
       </c>
       <c r="D5">
-        <v>1.062367891681199</v>
+        <v>1.069755684145496</v>
       </c>
       <c r="E5">
-        <v>1.053276869371355</v>
+        <v>1.067292690386455</v>
       </c>
       <c r="F5">
-        <v>1.067889352172822</v>
+        <v>1.078818454141338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071675524597949</v>
+        <v>1.058211034274145</v>
       </c>
       <c r="J5">
-        <v>1.064074490820212</v>
+        <v>1.067997817570153</v>
       </c>
       <c r="K5">
-        <v>1.071560441727969</v>
+        <v>1.072107198949938</v>
       </c>
       <c r="L5">
-        <v>1.062562590546017</v>
+        <v>1.069649906394468</v>
       </c>
       <c r="M5">
-        <v>1.07702625625261</v>
+        <v>1.081149230985001</v>
       </c>
       <c r="N5">
-        <v>1.023500456406068</v>
+        <v>1.02617194213985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.046477641559612</v>
+        <v>1.063745350557639</v>
       </c>
       <c r="D6">
-        <v>1.062588184353877</v>
+        <v>1.069802251182785</v>
       </c>
       <c r="E6">
-        <v>1.05352593052607</v>
+        <v>1.067346794488543</v>
       </c>
       <c r="F6">
-        <v>1.068132654988974</v>
+        <v>1.078871090884894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071793386125903</v>
+        <v>1.058232008995948</v>
       </c>
       <c r="J6">
-        <v>1.064266519760745</v>
+        <v>1.068038187183099</v>
       </c>
       <c r="K6">
-        <v>1.071743718223558</v>
+        <v>1.07214525572387</v>
       </c>
       <c r="L6">
-        <v>1.062773896268253</v>
+        <v>1.069695460981325</v>
       </c>
       <c r="M6">
-        <v>1.077232577290405</v>
+        <v>1.081193423095263</v>
       </c>
       <c r="N6">
-        <v>1.023572990959678</v>
+        <v>1.026186482070143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.044618476293633</v>
+        <v>1.063358158212874</v>
       </c>
       <c r="D7">
-        <v>1.061067229924748</v>
+        <v>1.069482008686086</v>
       </c>
       <c r="E7">
-        <v>1.051806510729612</v>
+        <v>1.066974746190246</v>
       </c>
       <c r="F7">
-        <v>1.066453041771126</v>
+        <v>1.07850913578923</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07097863899847</v>
+        <v>1.058087658207812</v>
       </c>
       <c r="J7">
-        <v>1.062940126453123</v>
+        <v>1.067760509055541</v>
       </c>
       <c r="K7">
-        <v>1.070477754471901</v>
+        <v>1.071883481603525</v>
       </c>
       <c r="L7">
-        <v>1.061314631841508</v>
+        <v>1.069382153672255</v>
       </c>
       <c r="M7">
-        <v>1.075807757558614</v>
+        <v>1.080889487009499</v>
       </c>
       <c r="N7">
-        <v>1.023071738272539</v>
+        <v>1.026086425439943</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.036645955284203</v>
+        <v>1.061738627114126</v>
       </c>
       <c r="D8">
-        <v>1.05455018489405</v>
+        <v>1.068142471243856</v>
       </c>
       <c r="E8">
-        <v>1.044442929331629</v>
+        <v>1.06541917571674</v>
       </c>
       <c r="F8">
-        <v>1.059261384736894</v>
+        <v>1.076995839022416</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067462279761026</v>
+        <v>1.057481183294112</v>
       </c>
       <c r="J8">
-        <v>1.057242028012381</v>
+        <v>1.066597629493257</v>
       </c>
       <c r="K8">
-        <v>1.065038661588758</v>
+        <v>1.070787091803525</v>
       </c>
       <c r="L8">
-        <v>1.055052752224315</v>
+        <v>1.068070938986928</v>
       </c>
       <c r="M8">
-        <v>1.069694278952311</v>
+        <v>1.079617508128485</v>
       </c>
       <c r="N8">
-        <v>1.020912553182289</v>
+        <v>1.025666275236987</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.021757129797071</v>
+        <v>1.058880369064507</v>
       </c>
       <c r="D9">
-        <v>1.042403975149095</v>
+        <v>1.065778253012542</v>
       </c>
       <c r="E9">
-        <v>1.030732080912484</v>
+        <v>1.062676156854685</v>
       </c>
       <c r="F9">
-        <v>1.045877341195307</v>
+        <v>1.074327652928761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060811276968943</v>
+        <v>1.05640069766916</v>
       </c>
       <c r="J9">
-        <v>1.046564307863436</v>
+        <v>1.064539964504406</v>
       </c>
       <c r="K9">
-        <v>1.054844600201796</v>
+        <v>1.068846655178272</v>
       </c>
       <c r="L9">
-        <v>1.043345480176866</v>
+        <v>1.06575410063428</v>
       </c>
       <c r="M9">
-        <v>1.058267495224975</v>
+        <v>1.077370069277358</v>
       </c>
       <c r="N9">
-        <v>1.01684576320139</v>
+        <v>1.02491860898793</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.011181004079194</v>
+        <v>1.056971712576747</v>
       </c>
       <c r="D10">
-        <v>1.033797522022136</v>
+        <v>1.06419946576034</v>
       </c>
       <c r="E10">
-        <v>1.02102404011063</v>
+        <v>1.060846067042502</v>
       </c>
       <c r="F10">
-        <v>1.036406398135327</v>
+        <v>1.072547697459011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056032577237078</v>
+        <v>1.055672375733216</v>
       </c>
       <c r="J10">
-        <v>1.038957926549893</v>
+        <v>1.063162347510016</v>
       </c>
       <c r="K10">
-        <v>1.047582235866052</v>
+        <v>1.06754724676138</v>
       </c>
       <c r="L10">
-        <v>1.035023798412583</v>
+        <v>1.064205180694989</v>
       </c>
       <c r="M10">
-        <v>1.050148029534679</v>
+        <v>1.075867603815573</v>
       </c>
       <c r="N10">
-        <v>1.013936590576427</v>
+        <v>1.024415219083896</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.006425602701043</v>
+        <v>1.056144457882102</v>
       </c>
       <c r="D11">
-        <v>1.02993405579714</v>
+        <v>1.063515184093164</v>
       </c>
       <c r="E11">
-        <v>1.016667298171839</v>
+        <v>1.060053253765578</v>
       </c>
       <c r="F11">
-        <v>1.032157703179096</v>
+        <v>1.071776654833945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05387175169204</v>
+        <v>1.055355092342766</v>
       </c>
       <c r="J11">
-        <v>1.035533490884766</v>
+        <v>1.062564413746279</v>
       </c>
       <c r="K11">
-        <v>1.044312708350688</v>
+        <v>1.066983194346431</v>
       </c>
       <c r="L11">
-        <v>1.03128159298376</v>
+        <v>1.063533419915027</v>
       </c>
       <c r="M11">
-        <v>1.046497626827825</v>
+        <v>1.075216005745211</v>
       </c>
       <c r="N11">
-        <v>1.012624430169495</v>
+        <v>1.024196065117877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004630746902139</v>
+        <v>1.055837056026608</v>
       </c>
       <c r="D12">
-        <v>1.02847690631482</v>
+        <v>1.06326091074394</v>
       </c>
       <c r="E12">
-        <v>1.015024247666438</v>
+        <v>1.05975870903227</v>
       </c>
       <c r="F12">
-        <v>1.030555674254014</v>
+        <v>1.071490206336411</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053054421303018</v>
+        <v>1.055236950076583</v>
       </c>
       <c r="J12">
-        <v>1.034240410033259</v>
+        <v>1.062342099450947</v>
       </c>
       <c r="K12">
-        <v>1.043078140141463</v>
+        <v>1.066773467816416</v>
       </c>
       <c r="L12">
-        <v>1.029869158465307</v>
+        <v>1.063283735146017</v>
       </c>
       <c r="M12">
-        <v>1.045119990120075</v>
+        <v>1.074973817695775</v>
       </c>
       <c r="N12">
-        <v>1.012128628058749</v>
+        <v>1.024114483174431</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.005017074238776</v>
+        <v>1.055903000371405</v>
       </c>
       <c r="D13">
-        <v>1.028790495563445</v>
+        <v>1.063315457829193</v>
       </c>
       <c r="E13">
-        <v>1.015377838402061</v>
+        <v>1.059821892570986</v>
       </c>
       <c r="F13">
-        <v>1.030900424154219</v>
+        <v>1.071551652763594</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053230422946998</v>
+        <v>1.055262305097323</v>
       </c>
       <c r="J13">
-        <v>1.034518759482382</v>
+        <v>1.062389796390762</v>
       </c>
       <c r="K13">
-        <v>1.043343893035992</v>
+        <v>1.066818464510695</v>
       </c>
       <c r="L13">
-        <v>1.030173171327954</v>
+        <v>1.063337300787233</v>
       </c>
       <c r="M13">
-        <v>1.045416506085678</v>
+        <v>1.075025774926894</v>
       </c>
       <c r="N13">
-        <v>1.012235368746132</v>
+        <v>1.024131990862558</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.006277833218395</v>
+        <v>1.056119050469896</v>
       </c>
       <c r="D14">
-        <v>1.029814067323936</v>
+        <v>1.063494167844377</v>
       </c>
       <c r="E14">
-        <v>1.016531999081408</v>
+        <v>1.060028907816437</v>
       </c>
       <c r="F14">
-        <v>1.032025776335267</v>
+        <v>1.071752977923611</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053804496627422</v>
+        <v>1.055345332571332</v>
       </c>
       <c r="J14">
-        <v>1.035427043550562</v>
+        <v>1.062546041577768</v>
       </c>
       <c r="K14">
-        <v>1.044211077353628</v>
+        <v>1.066965862629562</v>
       </c>
       <c r="L14">
-        <v>1.031165307449879</v>
+        <v>1.06351278423135</v>
       </c>
       <c r="M14">
-        <v>1.046384203072093</v>
+        <v>1.075195989590552</v>
       </c>
       <c r="N14">
-        <v>1.012583621740007</v>
+        <v>1.024189325172384</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007050788059165</v>
+        <v>1.056252149715929</v>
       </c>
       <c r="D15">
-        <v>1.030441748604345</v>
+        <v>1.063604263581384</v>
       </c>
       <c r="E15">
-        <v>1.017239778536324</v>
+        <v>1.060156448899491</v>
       </c>
       <c r="F15">
-        <v>1.032715926143033</v>
+        <v>1.071877014444702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054156224284068</v>
+        <v>1.055396450190838</v>
       </c>
       <c r="J15">
-        <v>1.035983826792545</v>
+        <v>1.062642280827399</v>
       </c>
       <c r="K15">
-        <v>1.044742669118746</v>
+        <v>1.067056651276694</v>
       </c>
       <c r="L15">
-        <v>1.031773576279316</v>
+        <v>1.063620883714026</v>
       </c>
       <c r="M15">
-        <v>1.046977508599989</v>
+        <v>1.075300843790255</v>
       </c>
       <c r="N15">
-        <v>1.012797061267525</v>
+        <v>1.024224627071955</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.011492727543182</v>
+        <v>1.057026597734205</v>
       </c>
       <c r="D16">
-        <v>1.034050917796145</v>
+        <v>1.064244865276529</v>
       </c>
       <c r="E16">
-        <v>1.021309810830672</v>
+        <v>1.060898675378744</v>
       </c>
       <c r="F16">
-        <v>1.03668511810981</v>
+        <v>1.072598862284603</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056173975828524</v>
+        <v>1.055693392320731</v>
       </c>
       <c r="J16">
-        <v>1.039182319309477</v>
+        <v>1.06320200036783</v>
       </c>
       <c r="K16">
-        <v>1.047796479758723</v>
+        <v>1.067584651394353</v>
       </c>
       <c r="L16">
-        <v>1.035269101813388</v>
+        <v>1.064249740533208</v>
       </c>
       <c r="M16">
-        <v>1.050387334705956</v>
+        <v>1.075910826544655</v>
       </c>
       <c r="N16">
-        <v>1.014022525298686</v>
+        <v>1.024429738630749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014230560869219</v>
+        <v>1.057512173610056</v>
       </c>
       <c r="D17">
-        <v>1.036277191353899</v>
+        <v>1.06464652061587</v>
       </c>
       <c r="E17">
-        <v>1.023820657582152</v>
+        <v>1.061364152895166</v>
       </c>
       <c r="F17">
-        <v>1.039134204675796</v>
+        <v>1.073051573676586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057414495762562</v>
+        <v>1.055879142569748</v>
       </c>
       <c r="J17">
-        <v>1.041152653692013</v>
+        <v>1.063552716814978</v>
       </c>
       <c r="K17">
-        <v>1.049677704560162</v>
+        <v>1.067915475679052</v>
       </c>
       <c r="L17">
-        <v>1.037423529082241</v>
+        <v>1.064643918103464</v>
       </c>
       <c r="M17">
-        <v>1.052489181544842</v>
+        <v>1.076293177828473</v>
       </c>
       <c r="N17">
-        <v>1.014776824914281</v>
+        <v>1.024558082526794</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015810674254086</v>
+        <v>1.05779532543777</v>
       </c>
       <c r="D18">
-        <v>1.03756264962211</v>
+        <v>1.064880736190356</v>
       </c>
       <c r="E18">
-        <v>1.025270548503735</v>
+        <v>1.061635622312937</v>
       </c>
       <c r="F18">
-        <v>1.040548585388219</v>
+        <v>1.073315602805775</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05812929860202</v>
+        <v>1.055987302851832</v>
       </c>
       <c r="J18">
-        <v>1.042289398514894</v>
+        <v>1.063757147265603</v>
       </c>
       <c r="K18">
-        <v>1.050763041227163</v>
+        <v>1.06810830494532</v>
       </c>
       <c r="L18">
-        <v>1.038666884562557</v>
+        <v>1.064873732307644</v>
       </c>
       <c r="M18">
-        <v>1.053702272564561</v>
+        <v>1.076516098537895</v>
       </c>
       <c r="N18">
-        <v>1.015211770668027</v>
+        <v>1.024632829273053</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016346658684456</v>
+        <v>1.05789186004198</v>
       </c>
       <c r="D19">
-        <v>1.037998781499174</v>
+        <v>1.064960586992262</v>
       </c>
       <c r="E19">
-        <v>1.025762490673547</v>
+        <v>1.06172818038596</v>
       </c>
       <c r="F19">
-        <v>1.041028504317432</v>
+        <v>1.073405624936916</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05837156710135</v>
+        <v>1.05602415142598</v>
       </c>
       <c r="J19">
-        <v>1.042674917207866</v>
+        <v>1.063826829678067</v>
       </c>
       <c r="K19">
-        <v>1.051131125126079</v>
+        <v>1.068174031913967</v>
       </c>
       <c r="L19">
-        <v>1.039088627752962</v>
+        <v>1.064952075630683</v>
       </c>
       <c r="M19">
-        <v>1.054113763279648</v>
+        <v>1.076592092126676</v>
       </c>
       <c r="N19">
-        <v>1.015359238774822</v>
+        <v>1.024658296653392</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.013938571127193</v>
+        <v>1.057460083838465</v>
       </c>
       <c r="D20">
-        <v>1.036039697747039</v>
+        <v>1.064603433351074</v>
       </c>
       <c r="E20">
-        <v>1.023552794297599</v>
+        <v>1.061314215280195</v>
       </c>
       <c r="F20">
-        <v>1.038872914019162</v>
+        <v>1.073003005125557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05728231347102</v>
+        <v>1.055859232440272</v>
       </c>
       <c r="J20">
-        <v>1.04094256017425</v>
+        <v>1.063515102397489</v>
       </c>
       <c r="K20">
-        <v>1.049477112363718</v>
+        <v>1.067879995337363</v>
       </c>
       <c r="L20">
-        <v>1.037193764310377</v>
+        <v>1.064601637242971</v>
       </c>
       <c r="M20">
-        <v>1.052265015865252</v>
+        <v>1.076252165341298</v>
       </c>
       <c r="N20">
-        <v>1.014696419028968</v>
+        <v>1.024544324246327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005907375203078</v>
+        <v>1.056055432512997</v>
       </c>
       <c r="D21">
-        <v>1.029513273716648</v>
+        <v>1.063441544994707</v>
       </c>
       <c r="E21">
-        <v>1.016192826150492</v>
+        <v>1.059967948624829</v>
       </c>
       <c r="F21">
-        <v>1.03169506158768</v>
+        <v>1.071693694051575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053635860152298</v>
+        <v>1.055320891040767</v>
       </c>
       <c r="J21">
-        <v>1.03516017109351</v>
+        <v>1.06250003721972</v>
       </c>
       <c r="K21">
-        <v>1.043956280211677</v>
+        <v>1.06692246343544</v>
       </c>
       <c r="L21">
-        <v>1.03087378004261</v>
+        <v>1.063461113247294</v>
       </c>
       <c r="M21">
-        <v>1.04609985258367</v>
+        <v>1.075145869925069</v>
       </c>
       <c r="N21">
-        <v>1.01248130647454</v>
+        <v>1.02417244657756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000691834325218</v>
+        <v>1.055171561312374</v>
       </c>
       <c r="D22">
-        <v>1.025281192164755</v>
+        <v>1.062710436196542</v>
       </c>
       <c r="E22">
-        <v>1.011421044273023</v>
+        <v>1.059121157089725</v>
       </c>
       <c r="F22">
-        <v>1.027042967874985</v>
+        <v>1.070870193920828</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051257582049005</v>
+        <v>1.054980741190152</v>
       </c>
       <c r="J22">
-        <v>1.031401691949328</v>
+        <v>1.06186057998899</v>
       </c>
       <c r="K22">
-        <v>1.040367926838915</v>
+        <v>1.066319195537669</v>
       </c>
       <c r="L22">
-        <v>1.026769593304913</v>
+        <v>1.062743076822764</v>
       </c>
       <c r="M22">
-        <v>1.0420970828992</v>
+        <v>1.074449397249547</v>
       </c>
       <c r="N22">
-        <v>1.011039635236944</v>
+        <v>1.023937599798061</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003473174859617</v>
+        <v>1.055640186694881</v>
       </c>
       <c r="D23">
-        <v>1.027537447377344</v>
+        <v>1.063098066799873</v>
       </c>
       <c r="E23">
-        <v>1.01396496886331</v>
+        <v>1.059570090443019</v>
       </c>
       <c r="F23">
-        <v>1.02952292300245</v>
+        <v>1.071306774652145</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052526806399077</v>
+        <v>1.055161220119059</v>
       </c>
       <c r="J23">
-        <v>1.033406298787066</v>
+        <v>1.06219968717748</v>
       </c>
       <c r="K23">
-        <v>1.04228178004792</v>
+        <v>1.066639116490052</v>
       </c>
       <c r="L23">
-        <v>1.028958236600334</v>
+        <v>1.063123811780164</v>
       </c>
       <c r="M23">
-        <v>1.044231554629419</v>
+        <v>1.074818696711376</v>
       </c>
       <c r="N23">
-        <v>1.011808720988882</v>
+        <v>1.024062194624731</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014070560544256</v>
+        <v>1.057483621199954</v>
       </c>
       <c r="D24">
-        <v>1.036147051222297</v>
+        <v>1.064622902826639</v>
       </c>
       <c r="E24">
-        <v>1.023673875308449</v>
+        <v>1.061336780049295</v>
       </c>
       <c r="F24">
-        <v>1.03899102356155</v>
+        <v>1.073024951255155</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057342067995659</v>
+        <v>1.055868229541429</v>
       </c>
       <c r="J24">
-        <v>1.041037530969118</v>
+        <v>1.063532099155462</v>
       </c>
       <c r="K24">
-        <v>1.049567788171208</v>
+        <v>1.067896027793483</v>
       </c>
       <c r="L24">
-        <v>1.037297626062139</v>
+        <v>1.064620742461811</v>
       </c>
       <c r="M24">
-        <v>1.052366346381765</v>
+        <v>1.076270697422706</v>
       </c>
       <c r="N24">
-        <v>1.014732766475787</v>
+        <v>1.024550541373555</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.025714123297356</v>
+        <v>1.059619840371451</v>
       </c>
       <c r="D25">
-        <v>1.045628756929391</v>
+        <v>1.066389918449394</v>
       </c>
       <c r="E25">
-        <v>1.034370921720454</v>
+        <v>1.063385532063668</v>
       </c>
       <c r="F25">
-        <v>1.049428559887</v>
+        <v>1.075017639951743</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062588403964807</v>
+        <v>1.056681434063752</v>
       </c>
       <c r="J25">
-        <v>1.049406046702011</v>
+        <v>1.065072941527023</v>
       </c>
       <c r="K25">
-        <v>1.057557755669112</v>
+        <v>1.069349316859035</v>
       </c>
       <c r="L25">
-        <v>1.046458115284779</v>
+        <v>1.066353818860635</v>
       </c>
       <c r="M25">
-        <v>1.06130512929213</v>
+        <v>1.077951813834221</v>
       </c>
       <c r="N25">
-        <v>1.017930303079661</v>
+        <v>1.025112767981979</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061321398556226</v>
+        <v>1.034539354400599</v>
       </c>
       <c r="D2">
-        <v>1.067797366434812</v>
+        <v>1.052829629561083</v>
       </c>
       <c r="E2">
-        <v>1.065018583725078</v>
+        <v>1.04249980947913</v>
       </c>
       <c r="F2">
-        <v>1.076606152553309</v>
+        <v>1.057364037484707</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057324253352831</v>
+        <v>1.066527478422074</v>
       </c>
       <c r="J2">
-        <v>1.066297682308172</v>
+        <v>1.055733889932466</v>
       </c>
       <c r="K2">
-        <v>1.070504265738888</v>
+        <v>1.063598942775855</v>
       </c>
       <c r="L2">
-        <v>1.06773295471182</v>
+        <v>1.053397181716706</v>
       </c>
       <c r="M2">
-        <v>1.079289642001102</v>
+        <v>1.068078119271932</v>
       </c>
       <c r="N2">
-        <v>1.025557616551882</v>
+        <v>1.020339643586363</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.062555617903231</v>
+        <v>1.040707863957071</v>
       </c>
       <c r="D3">
-        <v>1.068818223727867</v>
+        <v>1.057869477020331</v>
       </c>
       <c r="E3">
-        <v>1.066203777349063</v>
+        <v>1.04819264501436</v>
       </c>
       <c r="F3">
-        <v>1.077759103800774</v>
+        <v>1.062923254026855</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057787663313956</v>
+        <v>1.069258227443103</v>
       </c>
       <c r="J3">
-        <v>1.067184540359022</v>
+        <v>1.060147120874625</v>
       </c>
       <c r="K3">
-        <v>1.071340467621829</v>
+        <v>1.067811814187018</v>
       </c>
       <c r="L3">
-        <v>1.068732540805913</v>
+        <v>1.058243902321597</v>
       </c>
       <c r="M3">
-        <v>1.080259309246273</v>
+        <v>1.072809675903697</v>
       </c>
       <c r="N3">
-        <v>1.025878551360732</v>
+        <v>1.022014507534911</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06335367644633</v>
+        <v>1.044596852323815</v>
       </c>
       <c r="D4">
-        <v>1.069478301842035</v>
+        <v>1.061049542275281</v>
       </c>
       <c r="E4">
-        <v>1.066970440053253</v>
+        <v>1.051786517222965</v>
       </c>
       <c r="F4">
-        <v>1.078504946511711</v>
+        <v>1.06643351187398</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058085985866455</v>
+        <v>1.070969150376873</v>
       </c>
       <c r="J4">
-        <v>1.067757294141358</v>
+        <v>1.062924693511</v>
       </c>
       <c r="K4">
-        <v>1.071880450760555</v>
+        <v>1.070463024296652</v>
       </c>
       <c r="L4">
-        <v>1.06937852672855</v>
+        <v>1.061297656706903</v>
       </c>
       <c r="M4">
-        <v>1.080885968558615</v>
+        <v>1.075791183397293</v>
       </c>
       <c r="N4">
-        <v>1.026085266381966</v>
+        <v>1.023065902834179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063689047899703</v>
+        <v>1.046208396005946</v>
       </c>
       <c r="D5">
-        <v>1.069755684145496</v>
+        <v>1.0623678916812</v>
       </c>
       <c r="E5">
-        <v>1.067292690386455</v>
+        <v>1.053276869371357</v>
       </c>
       <c r="F5">
-        <v>1.078818454141338</v>
+        <v>1.067889352172824</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058211034274145</v>
+        <v>1.071675524597949</v>
       </c>
       <c r="J5">
-        <v>1.067997817570153</v>
+        <v>1.064074490820213</v>
       </c>
       <c r="K5">
-        <v>1.072107198949938</v>
+        <v>1.07156044172797</v>
       </c>
       <c r="L5">
-        <v>1.069649906394468</v>
+        <v>1.062562590546018</v>
       </c>
       <c r="M5">
-        <v>1.081149230985001</v>
+        <v>1.077026256252611</v>
       </c>
       <c r="N5">
-        <v>1.02617194213985</v>
+        <v>1.023500456406069</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.063745350557639</v>
+        <v>1.046477641559612</v>
       </c>
       <c r="D6">
-        <v>1.069802251182785</v>
+        <v>1.062588184353877</v>
       </c>
       <c r="E6">
-        <v>1.067346794488543</v>
+        <v>1.05352593052607</v>
       </c>
       <c r="F6">
-        <v>1.078871090884894</v>
+        <v>1.068132654988974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058232008995948</v>
+        <v>1.071793386125903</v>
       </c>
       <c r="J6">
-        <v>1.068038187183099</v>
+        <v>1.064266519760744</v>
       </c>
       <c r="K6">
-        <v>1.07214525572387</v>
+        <v>1.071743718223558</v>
       </c>
       <c r="L6">
-        <v>1.069695460981325</v>
+        <v>1.062773896268253</v>
       </c>
       <c r="M6">
-        <v>1.081193423095263</v>
+        <v>1.077232577290405</v>
       </c>
       <c r="N6">
-        <v>1.026186482070143</v>
+        <v>1.023572990959678</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063358158212874</v>
+        <v>1.044618476293634</v>
       </c>
       <c r="D7">
-        <v>1.069482008686086</v>
+        <v>1.061067229924749</v>
       </c>
       <c r="E7">
-        <v>1.066974746190246</v>
+        <v>1.051806510729613</v>
       </c>
       <c r="F7">
-        <v>1.07850913578923</v>
+        <v>1.066453041771127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058087658207812</v>
+        <v>1.070978638998471</v>
       </c>
       <c r="J7">
-        <v>1.067760509055541</v>
+        <v>1.062940126453124</v>
       </c>
       <c r="K7">
-        <v>1.071883481603525</v>
+        <v>1.070477754471902</v>
       </c>
       <c r="L7">
-        <v>1.069382153672255</v>
+        <v>1.061314631841509</v>
       </c>
       <c r="M7">
-        <v>1.080889487009499</v>
+        <v>1.075807757558615</v>
       </c>
       <c r="N7">
-        <v>1.026086425439943</v>
+        <v>1.023071738272539</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061738627114126</v>
+        <v>1.036645955284204</v>
       </c>
       <c r="D8">
-        <v>1.068142471243856</v>
+        <v>1.05455018489405</v>
       </c>
       <c r="E8">
-        <v>1.06541917571674</v>
+        <v>1.044442929331629</v>
       </c>
       <c r="F8">
-        <v>1.076995839022416</v>
+        <v>1.059261384736894</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057481183294112</v>
+        <v>1.067462279761026</v>
       </c>
       <c r="J8">
-        <v>1.066597629493257</v>
+        <v>1.057242028012381</v>
       </c>
       <c r="K8">
-        <v>1.070787091803525</v>
+        <v>1.065038661588758</v>
       </c>
       <c r="L8">
-        <v>1.068070938986928</v>
+        <v>1.055052752224316</v>
       </c>
       <c r="M8">
-        <v>1.079617508128485</v>
+        <v>1.069694278952311</v>
       </c>
       <c r="N8">
-        <v>1.025666275236987</v>
+        <v>1.020912553182289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058880369064507</v>
+        <v>1.02175712979707</v>
       </c>
       <c r="D9">
-        <v>1.065778253012542</v>
+        <v>1.042403975149094</v>
       </c>
       <c r="E9">
-        <v>1.062676156854685</v>
+        <v>1.030732080912482</v>
       </c>
       <c r="F9">
-        <v>1.074327652928761</v>
+        <v>1.045877341195305</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05640069766916</v>
+        <v>1.060811276968942</v>
       </c>
       <c r="J9">
-        <v>1.064539964504406</v>
+        <v>1.046564307863435</v>
       </c>
       <c r="K9">
-        <v>1.068846655178272</v>
+        <v>1.054844600201795</v>
       </c>
       <c r="L9">
-        <v>1.06575410063428</v>
+        <v>1.043345480176864</v>
       </c>
       <c r="M9">
-        <v>1.077370069277358</v>
+        <v>1.058267495224973</v>
       </c>
       <c r="N9">
-        <v>1.02491860898793</v>
+        <v>1.016845763201389</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.056971712576747</v>
+        <v>1.011181004079194</v>
       </c>
       <c r="D10">
-        <v>1.06419946576034</v>
+        <v>1.033797522022136</v>
       </c>
       <c r="E10">
-        <v>1.060846067042502</v>
+        <v>1.02102404011063</v>
       </c>
       <c r="F10">
-        <v>1.072547697459011</v>
+        <v>1.036406398135327</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055672375733216</v>
+        <v>1.056032577237078</v>
       </c>
       <c r="J10">
-        <v>1.063162347510016</v>
+        <v>1.038957926549892</v>
       </c>
       <c r="K10">
-        <v>1.06754724676138</v>
+        <v>1.047582235866051</v>
       </c>
       <c r="L10">
-        <v>1.064205180694989</v>
+        <v>1.035023798412583</v>
       </c>
       <c r="M10">
-        <v>1.075867603815573</v>
+        <v>1.050148029534679</v>
       </c>
       <c r="N10">
-        <v>1.024415219083896</v>
+        <v>1.013936590576427</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056144457882102</v>
+        <v>1.006425602701043</v>
       </c>
       <c r="D11">
-        <v>1.063515184093164</v>
+        <v>1.02993405579714</v>
       </c>
       <c r="E11">
-        <v>1.060053253765578</v>
+        <v>1.016667298171839</v>
       </c>
       <c r="F11">
-        <v>1.071776654833945</v>
+        <v>1.032157703179096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055355092342766</v>
+        <v>1.05387175169204</v>
       </c>
       <c r="J11">
-        <v>1.062564413746279</v>
+        <v>1.035533490884766</v>
       </c>
       <c r="K11">
-        <v>1.066983194346431</v>
+        <v>1.044312708350687</v>
       </c>
       <c r="L11">
-        <v>1.063533419915027</v>
+        <v>1.031281592983759</v>
       </c>
       <c r="M11">
-        <v>1.075216005745211</v>
+        <v>1.046497626827825</v>
       </c>
       <c r="N11">
-        <v>1.024196065117877</v>
+        <v>1.012624430169495</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.055837056026608</v>
+        <v>1.004630746902138</v>
       </c>
       <c r="D12">
-        <v>1.06326091074394</v>
+        <v>1.028476906314819</v>
       </c>
       <c r="E12">
-        <v>1.05975870903227</v>
+        <v>1.015024247666438</v>
       </c>
       <c r="F12">
-        <v>1.071490206336411</v>
+        <v>1.030555674254014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055236950076583</v>
+        <v>1.053054421303018</v>
       </c>
       <c r="J12">
-        <v>1.062342099450947</v>
+        <v>1.034240410033258</v>
       </c>
       <c r="K12">
-        <v>1.066773467816416</v>
+        <v>1.043078140141462</v>
       </c>
       <c r="L12">
-        <v>1.063283735146017</v>
+        <v>1.029869158465307</v>
       </c>
       <c r="M12">
-        <v>1.074973817695775</v>
+        <v>1.045119990120074</v>
       </c>
       <c r="N12">
-        <v>1.024114483174431</v>
+        <v>1.012128628058749</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.055903000371405</v>
+        <v>1.005017074238776</v>
       </c>
       <c r="D13">
-        <v>1.063315457829193</v>
+        <v>1.028790495563446</v>
       </c>
       <c r="E13">
-        <v>1.059821892570986</v>
+        <v>1.015377838402061</v>
       </c>
       <c r="F13">
-        <v>1.071551652763594</v>
+        <v>1.030900424154219</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055262305097323</v>
+        <v>1.053230422946999</v>
       </c>
       <c r="J13">
-        <v>1.062389796390762</v>
+        <v>1.034518759482383</v>
       </c>
       <c r="K13">
-        <v>1.066818464510695</v>
+        <v>1.043343893035993</v>
       </c>
       <c r="L13">
-        <v>1.063337300787233</v>
+        <v>1.030173171327954</v>
       </c>
       <c r="M13">
-        <v>1.075025774926894</v>
+        <v>1.045416506085679</v>
       </c>
       <c r="N13">
-        <v>1.024131990862558</v>
+        <v>1.012235368746132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056119050469896</v>
+        <v>1.006277833218395</v>
       </c>
       <c r="D14">
-        <v>1.063494167844377</v>
+        <v>1.029814067323936</v>
       </c>
       <c r="E14">
-        <v>1.060028907816437</v>
+        <v>1.016531999081409</v>
       </c>
       <c r="F14">
-        <v>1.071752977923611</v>
+        <v>1.032025776335267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055345332571332</v>
+        <v>1.053804496627422</v>
       </c>
       <c r="J14">
-        <v>1.062546041577768</v>
+        <v>1.035427043550562</v>
       </c>
       <c r="K14">
-        <v>1.066965862629562</v>
+        <v>1.044211077353628</v>
       </c>
       <c r="L14">
-        <v>1.06351278423135</v>
+        <v>1.03116530744988</v>
       </c>
       <c r="M14">
-        <v>1.075195989590552</v>
+        <v>1.046384203072093</v>
       </c>
       <c r="N14">
-        <v>1.024189325172384</v>
+        <v>1.012583621740006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056252149715929</v>
+        <v>1.007050788059166</v>
       </c>
       <c r="D15">
-        <v>1.063604263581384</v>
+        <v>1.030441748604346</v>
       </c>
       <c r="E15">
-        <v>1.060156448899491</v>
+        <v>1.017239778536325</v>
       </c>
       <c r="F15">
-        <v>1.071877014444702</v>
+        <v>1.032715926143034</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055396450190838</v>
+        <v>1.054156224284068</v>
       </c>
       <c r="J15">
-        <v>1.062642280827399</v>
+        <v>1.035983826792546</v>
       </c>
       <c r="K15">
-        <v>1.067056651276694</v>
+        <v>1.044742669118746</v>
       </c>
       <c r="L15">
-        <v>1.063620883714026</v>
+        <v>1.031773576279316</v>
       </c>
       <c r="M15">
-        <v>1.075300843790255</v>
+        <v>1.046977508599989</v>
       </c>
       <c r="N15">
-        <v>1.024224627071955</v>
+        <v>1.012797061267525</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057026597734205</v>
+        <v>1.01149272754318</v>
       </c>
       <c r="D16">
-        <v>1.064244865276529</v>
+        <v>1.034050917796144</v>
       </c>
       <c r="E16">
-        <v>1.060898675378744</v>
+        <v>1.021309810830671</v>
       </c>
       <c r="F16">
-        <v>1.072598862284603</v>
+        <v>1.036685118109808</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055693392320731</v>
+        <v>1.056173975828522</v>
       </c>
       <c r="J16">
-        <v>1.06320200036783</v>
+        <v>1.039182319309476</v>
       </c>
       <c r="K16">
-        <v>1.067584651394353</v>
+        <v>1.047796479758721</v>
       </c>
       <c r="L16">
-        <v>1.064249740533208</v>
+        <v>1.035269101813387</v>
       </c>
       <c r="M16">
-        <v>1.075910826544655</v>
+        <v>1.050387334705954</v>
       </c>
       <c r="N16">
-        <v>1.024429738630749</v>
+        <v>1.014022525298685</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.057512173610056</v>
+        <v>1.014230560869219</v>
       </c>
       <c r="D17">
-        <v>1.06464652061587</v>
+        <v>1.036277191353899</v>
       </c>
       <c r="E17">
-        <v>1.061364152895166</v>
+        <v>1.023820657582152</v>
       </c>
       <c r="F17">
-        <v>1.073051573676586</v>
+        <v>1.039134204675795</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055879142569748</v>
+        <v>1.057414495762561</v>
       </c>
       <c r="J17">
-        <v>1.063552716814978</v>
+        <v>1.041152653692013</v>
       </c>
       <c r="K17">
-        <v>1.067915475679052</v>
+        <v>1.049677704560162</v>
       </c>
       <c r="L17">
-        <v>1.064643918103464</v>
+        <v>1.037423529082241</v>
       </c>
       <c r="M17">
-        <v>1.076293177828473</v>
+        <v>1.052489181544842</v>
       </c>
       <c r="N17">
-        <v>1.024558082526794</v>
+        <v>1.014776824914281</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.05779532543777</v>
+        <v>1.015810674254084</v>
       </c>
       <c r="D18">
-        <v>1.064880736190356</v>
+        <v>1.037562649622108</v>
       </c>
       <c r="E18">
-        <v>1.061635622312937</v>
+        <v>1.025270548503735</v>
       </c>
       <c r="F18">
-        <v>1.073315602805775</v>
+        <v>1.040548585388218</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055987302851832</v>
+        <v>1.058129298602019</v>
       </c>
       <c r="J18">
-        <v>1.063757147265603</v>
+        <v>1.042289398514893</v>
       </c>
       <c r="K18">
-        <v>1.06810830494532</v>
+        <v>1.050763041227162</v>
       </c>
       <c r="L18">
-        <v>1.064873732307644</v>
+        <v>1.038666884562556</v>
       </c>
       <c r="M18">
-        <v>1.076516098537895</v>
+        <v>1.053702272564559</v>
       </c>
       <c r="N18">
-        <v>1.024632829273053</v>
+        <v>1.015211770668026</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05789186004198</v>
+        <v>1.016346658684456</v>
       </c>
       <c r="D19">
-        <v>1.064960586992262</v>
+        <v>1.037998781499175</v>
       </c>
       <c r="E19">
-        <v>1.06172818038596</v>
+        <v>1.025762490673548</v>
       </c>
       <c r="F19">
-        <v>1.073405624936916</v>
+        <v>1.041028504317433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05602415142598</v>
+        <v>1.058371567101351</v>
       </c>
       <c r="J19">
-        <v>1.063826829678067</v>
+        <v>1.042674917207867</v>
       </c>
       <c r="K19">
-        <v>1.068174031913967</v>
+        <v>1.051131125126079</v>
       </c>
       <c r="L19">
-        <v>1.064952075630683</v>
+        <v>1.039088627752962</v>
       </c>
       <c r="M19">
-        <v>1.076592092126676</v>
+        <v>1.054113763279648</v>
       </c>
       <c r="N19">
-        <v>1.024658296653392</v>
+        <v>1.015359238774822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.057460083838465</v>
+        <v>1.013938571127193</v>
       </c>
       <c r="D20">
-        <v>1.064603433351074</v>
+        <v>1.036039697747039</v>
       </c>
       <c r="E20">
-        <v>1.061314215280195</v>
+        <v>1.023552794297599</v>
       </c>
       <c r="F20">
-        <v>1.073003005125557</v>
+        <v>1.038872914019162</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055859232440272</v>
+        <v>1.057282313471021</v>
       </c>
       <c r="J20">
-        <v>1.063515102397489</v>
+        <v>1.04094256017425</v>
       </c>
       <c r="K20">
-        <v>1.067879995337363</v>
+        <v>1.049477112363718</v>
       </c>
       <c r="L20">
-        <v>1.064601637242971</v>
+        <v>1.037193764310378</v>
       </c>
       <c r="M20">
-        <v>1.076252165341298</v>
+        <v>1.052265015865252</v>
       </c>
       <c r="N20">
-        <v>1.024544324246327</v>
+        <v>1.014696419028968</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056055432512997</v>
+        <v>1.00590737520308</v>
       </c>
       <c r="D21">
-        <v>1.063441544994707</v>
+        <v>1.02951327371665</v>
       </c>
       <c r="E21">
-        <v>1.059967948624829</v>
+        <v>1.016192826150494</v>
       </c>
       <c r="F21">
-        <v>1.071693694051575</v>
+        <v>1.031695061587682</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055320891040767</v>
+        <v>1.053635860152299</v>
       </c>
       <c r="J21">
-        <v>1.06250003721972</v>
+        <v>1.035160171093511</v>
       </c>
       <c r="K21">
-        <v>1.06692246343544</v>
+        <v>1.043956280211679</v>
       </c>
       <c r="L21">
-        <v>1.063461113247294</v>
+        <v>1.030873780042612</v>
       </c>
       <c r="M21">
-        <v>1.075145869925069</v>
+        <v>1.046099852583671</v>
       </c>
       <c r="N21">
-        <v>1.02417244657756</v>
+        <v>1.01248130647454</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055171561312374</v>
+        <v>1.000691834325219</v>
       </c>
       <c r="D22">
-        <v>1.062710436196542</v>
+        <v>1.025281192164756</v>
       </c>
       <c r="E22">
-        <v>1.059121157089725</v>
+        <v>1.011421044273024</v>
       </c>
       <c r="F22">
-        <v>1.070870193920828</v>
+        <v>1.027042967874986</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054980741190152</v>
+        <v>1.051257582049006</v>
       </c>
       <c r="J22">
-        <v>1.06186057998899</v>
+        <v>1.031401691949328</v>
       </c>
       <c r="K22">
-        <v>1.066319195537669</v>
+        <v>1.040367926838916</v>
       </c>
       <c r="L22">
-        <v>1.062743076822764</v>
+        <v>1.026769593304914</v>
       </c>
       <c r="M22">
-        <v>1.074449397249547</v>
+        <v>1.0420970828992</v>
       </c>
       <c r="N22">
-        <v>1.023937599798061</v>
+        <v>1.011039635236944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.055640186694881</v>
+        <v>1.003473174859617</v>
       </c>
       <c r="D23">
-        <v>1.063098066799873</v>
+        <v>1.027537447377344</v>
       </c>
       <c r="E23">
-        <v>1.059570090443019</v>
+        <v>1.01396496886331</v>
       </c>
       <c r="F23">
-        <v>1.071306774652145</v>
+        <v>1.02952292300245</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055161220119059</v>
+        <v>1.052526806399077</v>
       </c>
       <c r="J23">
-        <v>1.06219968717748</v>
+        <v>1.033406298787066</v>
       </c>
       <c r="K23">
-        <v>1.066639116490052</v>
+        <v>1.04228178004792</v>
       </c>
       <c r="L23">
-        <v>1.063123811780164</v>
+        <v>1.028958236600334</v>
       </c>
       <c r="M23">
-        <v>1.074818696711376</v>
+        <v>1.044231554629419</v>
       </c>
       <c r="N23">
-        <v>1.024062194624731</v>
+        <v>1.011808720988882</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.057483621199954</v>
+        <v>1.014070560544256</v>
       </c>
       <c r="D24">
-        <v>1.064622902826639</v>
+        <v>1.036147051222298</v>
       </c>
       <c r="E24">
-        <v>1.061336780049295</v>
+        <v>1.023673875308449</v>
       </c>
       <c r="F24">
-        <v>1.073024951255155</v>
+        <v>1.038991023561551</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055868229541429</v>
+        <v>1.05734206799566</v>
       </c>
       <c r="J24">
-        <v>1.063532099155462</v>
+        <v>1.041037530969118</v>
       </c>
       <c r="K24">
-        <v>1.067896027793483</v>
+        <v>1.049567788171209</v>
       </c>
       <c r="L24">
-        <v>1.064620742461811</v>
+        <v>1.037297626062139</v>
       </c>
       <c r="M24">
-        <v>1.076270697422706</v>
+        <v>1.052366346381766</v>
       </c>
       <c r="N24">
-        <v>1.024550541373555</v>
+        <v>1.014732766475787</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.059619840371451</v>
+        <v>1.025714123297355</v>
       </c>
       <c r="D25">
-        <v>1.066389918449394</v>
+        <v>1.04562875692939</v>
       </c>
       <c r="E25">
-        <v>1.063385532063668</v>
+        <v>1.034370921720453</v>
       </c>
       <c r="F25">
-        <v>1.075017639951743</v>
+        <v>1.049428559886999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056681434063752</v>
+        <v>1.062588403964806</v>
       </c>
       <c r="J25">
-        <v>1.065072941527023</v>
+        <v>1.04940604670201</v>
       </c>
       <c r="K25">
-        <v>1.069349316859035</v>
+        <v>1.057557755669111</v>
       </c>
       <c r="L25">
-        <v>1.066353818860635</v>
+        <v>1.046458115284777</v>
       </c>
       <c r="M25">
-        <v>1.077951813834221</v>
+        <v>1.061305129292129</v>
       </c>
       <c r="N25">
-        <v>1.025112767981979</v>
+        <v>1.017930303079661</v>
       </c>
     </row>
   </sheetData>
